--- a/biology/Médecine/Bromisme/Bromisme.xlsx
+++ b/biology/Médecine/Bromisme/Bromisme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bromisme est une intoxication par le brome et ses sels. L'intoxication peut être chronique ou aigüe. Elle est provoquée en inhalant le brome sous forme de gaz ou de vapeur[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bromisme est une intoxication par le brome et ses sels. L'intoxication peut être chronique ou aigüe. Elle est provoquée en inhalant le brome sous forme de gaz ou de vapeur.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les premiers symptômes consistent en des nausées, des vomissements et une anorexie. Puis, rapidement, il y a développement d'une hypothermie, de tremblements, de somnolence, d'ébriété, une ataxie et puis un coma profond dû à l’insuffisance circulatoire[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les premiers symptômes consistent en des nausées, des vomissements et une anorexie. Puis, rapidement, il y a développement d'une hypothermie, de tremblements, de somnolence, d'ébriété, une ataxie et puis un coma profond dû à l’insuffisance circulatoire.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Dose dangereuse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Aux États-Unis, l’OSHA (Occupational Safety and Health Administration) a défini une limite d'exposition admissible (PEL) pour le brome à une moyenne pondérée dans le temps (TWA) de 0,1 ppm (partie par million). Le NIOSH (National Institute for Occupational Safety and Health) a fixé une limite d’exposition recommandée (REL) de TWA 0,1 ppm. L'exposition au brome immédiatement dangereuse pour la vie et la santé (IDLH) est de 3 ppm.
 </t>
